--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_4_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_4_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2857894.355794629</v>
+        <v>2857894.355794628</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570864948.432647</v>
+        <v>59583988.52783272</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="12">
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W14" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X14" t="n">
         <v>592.2818334606677</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X17" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y17" t="n">
         <v>511.3174326828064</v>
@@ -2040,10 +2040,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H20" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963201042</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
         <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E29" t="n">
         <v>404.3632896068686</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3331,7 +3331,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V35" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W35" t="n">
         <v>638.3734759809475</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3933,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4333,28 +4333,28 @@
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>2046.117175397607</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L2" t="n">
-        <v>2963.70989871419</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M2" t="n">
-        <v>3445.889098227693</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N2" t="n">
-        <v>4010.932162100365</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O2" t="n">
-        <v>5755.312162100365</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q2" t="n">
         <v>7048</v>
@@ -4500,13 +4500,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N4" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O4" t="n">
         <v>426.6131206966359</v>
@@ -4564,7 +4564,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4585,13 +4585,13 @@
         <v>2814.780508913348</v>
       </c>
       <c r="N5" t="n">
-        <v>3379.82357278602</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O5" t="n">
-        <v>4289.978455726764</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P5" t="n">
-        <v>5987.71793717156</v>
+        <v>6211.542572088078</v>
       </c>
       <c r="Q5" t="n">
         <v>7048</v>
@@ -4740,13 +4740,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4813,22 +4813,22 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>2049.12665539136</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>2966.719378707943</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3448.898578221445</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N8" t="n">
-        <v>4013.941642094117</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O8" t="n">
-        <v>4924.096525034862</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P8" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q8" t="n">
         <v>7048</v>
@@ -4977,13 +4977,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,28 +5047,28 @@
         <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>696.7804792928897</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K11" t="n">
-        <v>1436.423622860729</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L11" t="n">
-        <v>2354.016346177312</v>
+        <v>3509.801978263786</v>
       </c>
       <c r="M11" t="n">
-        <v>2836.195545690814</v>
+        <v>3991.981177777289</v>
       </c>
       <c r="N11" t="n">
-        <v>3401.238609563487</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O11" t="n">
-        <v>5145.618609563487</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P11" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
@@ -5092,7 +5092,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5211,37 +5211,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,49 +5260,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2354.016346177312</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>2836.195545690814</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N14" t="n">
-        <v>3401.238609563487</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>5145.618609563487</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P14" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q14" t="n">
         <v>7048</v>
@@ -5323,13 +5323,13 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5448,37 +5448,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
         <v>140.96</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5521,28 +5521,28 @@
         <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>2819.17922466306</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176563</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049235</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370989979</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5563,10 +5563,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5688,28 +5688,28 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O19" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P19" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R19" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S19" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="U19" t="n">
         <v>140.96</v>
@@ -5749,37 +5749,37 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M20" t="n">
-        <v>3553.537024987068</v>
+        <v>3950.48856448151</v>
       </c>
       <c r="N20" t="n">
-        <v>4118.58008885974</v>
+        <v>4515.531628354182</v>
       </c>
       <c r="O20" t="n">
-        <v>5028.734971800483</v>
+        <v>5425.686511294926</v>
       </c>
       <c r="P20" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546135</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048162</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351343</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071678</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342926</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233376</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5998,49 +5998,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1339.420289043491</v>
+        <v>1713.790319599031</v>
       </c>
       <c r="L23" t="n">
-        <v>2257.013012360075</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M23" t="n">
-        <v>3445.889098227699</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N23" t="n">
-        <v>4010.932162100371</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100371</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197785</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183184</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464011</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542923</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818859</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908811</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665712</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430554</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6159,37 +6159,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W25" t="n">
         <v>140.96</v>
@@ -6223,7 +6223,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6232,28 +6232,28 @@
         <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K26" t="n">
-        <v>1830.673957362034</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L26" t="n">
-        <v>2748.266680678617</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M26" t="n">
-        <v>4280.114215286949</v>
+        <v>4214.862236188701</v>
       </c>
       <c r="N26" t="n">
-        <v>4845.157279159621</v>
+        <v>4779.905300061373</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100365</v>
+        <v>5690.060183002117</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>6525.92751109953</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>6982.748020901752</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6399,16 +6399,16 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N28" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O28" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P28" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q28" t="n">
         <v>140.96</v>
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
         <v>1711.662994324041</v>
@@ -6466,31 +6466,31 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2758.60299862014</v>
+        <v>2936.062862426063</v>
       </c>
       <c r="M29" t="n">
-        <v>3240.782198133642</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N29" t="n">
-        <v>3805.825262006314</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O29" t="n">
-        <v>5550.205262006314</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6633,34 +6633,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
         <v>140.96</v>
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6709,16 +6709,16 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>2046.117175397607</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L32" t="n">
-        <v>2963.70989871419</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M32" t="n">
-        <v>3445.889098227693</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N32" t="n">
-        <v>4010.932162100365</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O32" t="n">
         <v>5755.312162100365</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6870,34 +6870,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V34" t="n">
         <v>140.96</v>
@@ -6958,25 +6958,25 @@
         <v>3379.82357278602</v>
       </c>
       <c r="O35" t="n">
-        <v>5124.203572786019</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>5987.71793717156</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
         <v>4826.598134791557</v>
@@ -7107,28 +7107,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
         <v>140.96</v>
@@ -7156,13 +7156,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
         <v>1303.215227044376</v>
@@ -7177,25 +7177,25 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043491</v>
+        <v>1713.790319599031</v>
       </c>
       <c r="L38" t="n">
-        <v>2257.013012360075</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M38" t="n">
-        <v>2739.192211873577</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.235275746249</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O38" t="n">
-        <v>5048.61527574625</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
         <v>6474.295852434775</v>
@@ -7207,25 +7207,25 @@
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7344,37 +7344,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7414,28 +7414,28 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K41" t="n">
-        <v>1339.420289043491</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L41" t="n">
-        <v>2819.17922466306</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M41" t="n">
-        <v>3301.358424176563</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N41" t="n">
-        <v>3866.401488049235</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O41" t="n">
-        <v>4776.556370989979</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7581,34 +7581,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V43" t="n">
         <v>140.96</v>
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7663,19 +7663,19 @@
         <v>2758.60299862014</v>
       </c>
       <c r="M44" t="n">
-        <v>4280.114215286949</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N44" t="n">
-        <v>4845.157279159621</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O44" t="n">
-        <v>5755.312162100365</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.179490197778</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7699,7 +7699,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
-        <v>713.8352387415312</v>
+        <v>433.9782470873015</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7999,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>176.4768357656695</v>
@@ -8233,16 +8233,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>609.5571242689075</v>
+        <v>383.4716344542434</v>
       </c>
       <c r="R5" t="n">
         <v>176.4768357656695</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>940.6347988651447</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8476,10 +8476,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>839.6117546116188</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
         <v>176.4768357656695</v>
@@ -8695,31 +8695,31 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
-        <v>97.98316547195714</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>172.979191663289</v>
       </c>
       <c r="O11" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>21.63135028026977</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,13 +8947,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>842.6516333931879</v>
+        <v>685.9089394605946</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>176.4768357656695</v>
@@ -9169,31 +9169,31 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>137.5399223057482</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>105.4961355485622</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>822.5705182964547</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>332.955202833776</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,19 +9646,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>378.1515460156963</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>713.8352387415367</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>496.2158265843866</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>242.3879257638997</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>685.9089394605949</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,16 +10132,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>89.1144063949971</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>637.4834235498438</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>644.9963936264486</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10606,16 +10606,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>519.4191429811535</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>609.5571242689075</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>595.77095817284</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="L41" t="n">
-        <v>567.8446588919046</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11311,22 +11311,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.830320356875</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="12">
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>34.66406242702104</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23928,10 +23928,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23952,7 +23952,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>17.45782105274509</v>
       </c>
       <c r="V19" t="n">
         <v>199.1703102162162</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292970999</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24426,13 +24426,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24463,10 +24463,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24639,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24651,7 +24651,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q28" t="n">
-        <v>505.228266425598</v>
+        <v>371.871401121918</v>
       </c>
       <c r="R28" t="n">
         <v>608.1413738827905</v>
@@ -24685,13 +24685,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24903,7 +24903,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25140,7 +25140,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25821,16 +25821,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O43" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
         <v>368.8061924102448</v>
@@ -25848,10 +25848,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15954.38442270377</v>
+        <v>1316006.940470103</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31731.20170604742</v>
+        <v>2606868.406811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47508.01898939106</v>
+        <v>3897729.873151923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65464.68190845993</v>
+        <v>5053973.894141733</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83421.34482752881</v>
+        <v>6210217.915131543</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101378.0077465977</v>
+        <v>7366461.936121345</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119334.6706656665</v>
+        <v>8522705.957111144</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137291.3335847354</v>
+        <v>9678949.978100944</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155247.9965038043</v>
+        <v>10835193.99909075</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173204.6594228731</v>
+        <v>11991438.02008055</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191161.322341942</v>
+        <v>13147682.04107035</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209117.9852610108</v>
+        <v>14303926.06206015</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227074.6481800799</v>
+        <v>15460170.08304998</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245031.3110991489</v>
+        <v>16616414.1040398</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262987.9740182181</v>
+        <v>17772658.12502962</v>
       </c>
     </row>
   </sheetData>
@@ -26322,46 +26322,46 @@
         <v>913048.3542411313</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411312</v>
       </c>
       <c r="D2" t="n">
         <v>913048.3542411312</v>
       </c>
       <c r="E2" t="n">
+        <v>817831.1367976691</v>
+      </c>
+      <c r="F2" t="n">
+        <v>817831.1367976691</v>
+      </c>
+      <c r="G2" t="n">
         <v>817831.136797669</v>
       </c>
-      <c r="F2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>817831.1367976688</v>
+      </c>
+      <c r="I2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="J2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="K2" t="n">
         <v>817831.1367976691</v>
       </c>
-      <c r="H2" t="n">
-        <v>817831.136797669</v>
-      </c>
-      <c r="I2" t="n">
-        <v>817831.1367976695</v>
-      </c>
-      <c r="J2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="K2" t="n">
-        <v>817831.136797669</v>
-      </c>
       <c r="L2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="M2" t="n">
         <v>817831.136797669</v>
       </c>
       <c r="N2" t="n">
-        <v>817831.1367976691</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="O2" t="n">
+        <v>817831.1367976688</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.136797669</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.1367976689</v>
       </c>
     </row>
     <row r="3">
@@ -26435,7 +26435,7 @@
         <v>26356.19966309946</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309945</v>
       </c>
       <c r="G4" t="n">
         <v>26356.19966309946</v>
@@ -26444,25 +26444,25 @@
         <v>26356.19966309947</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309951</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="K4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="L4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>26356.19966309946</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="N4" t="n">
-        <v>26356.19966309946</v>
-      </c>
       <c r="O4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="P4" t="n">
         <v>26356.19966309947</v>
@@ -26530,7 +26530,7 @@
         <v>-1405906.1866451</v>
       </c>
       <c r="C6" t="n">
-        <v>639094.7644093808</v>
+        <v>639094.7644093807</v>
       </c>
       <c r="D6" t="n">
         <v>639397.1250793138</v>
@@ -26539,22 +26539,22 @@
         <v>652495.5371345696</v>
       </c>
       <c r="F6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="G6" t="n">
         <v>652495.5371345696</v>
       </c>
       <c r="H6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="I6" t="n">
         <v>652495.5371345696</v>
       </c>
-      <c r="I6" t="n">
-        <v>652495.53713457</v>
-      </c>
       <c r="J6" t="n">
-        <v>32271.53713456943</v>
+        <v>32271.53713456955</v>
       </c>
       <c r="K6" t="n">
-        <v>652495.5371345695</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="L6" t="n">
         <v>652495.5371345694</v>
@@ -26563,13 +26563,13 @@
         <v>652495.5371345696</v>
       </c>
       <c r="N6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="O6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="P6" t="n">
         <v>652495.5371345696</v>
-      </c>
-      <c r="O6" t="n">
-        <v>652495.5371345696</v>
-      </c>
-      <c r="P6" t="n">
-        <v>652495.5371345694</v>
       </c>
     </row>
   </sheetData>
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.85592323974635</v>
+        <v>151.8271516309749</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27705,7 +27705,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
         <v>400</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27936,16 +27936,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28173,16 +28173,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34825,13 +34825,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>1460.949525173692</v>
+        <v>1181.092533519462</v>
       </c>
       <c r="L2" t="n">
         <v>926.861336683417</v>
@@ -34843,13 +34843,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34992,7 +34992,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35001,7 +35001,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>31.19380758975518</v>
@@ -35077,16 +35077,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1070.99198265499</v>
+        <v>844.9064928403257</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35232,16 +35232,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35305,13 +35305,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>1427.68449534343</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
@@ -35320,10 +35320,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1683.922187033249</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35469,16 +35469,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35539,31 +35539,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>561.4348275685754</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>743.7297612316448</v>
       </c>
       <c r="O11" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>948.492686963687</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,13 +35791,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>1762</v>
+        <v>1605.257306067407</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36013,31 +36013,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1064.401258989165</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>676.246705116918</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>1309.62021477474</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,13 +36268,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1177.265635255406</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36490,19 +36490,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.1142864321608</v>
+        <v>1125.265832447857</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M23" t="n">
-        <v>1200.884935219822</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36724,13 +36724,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>1243.330113016547</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
         <v>1547.320742028618</v>
@@ -36748,7 +36748,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.91108999823012</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,16 +36958,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>1612.770276144012</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36976,16 +36976,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>933.4248388166272</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37201,19 +37201,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1384.597709982005</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M32" t="n">
-        <v>487.0496964782857</v>
+        <v>1132.046090104734</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
@@ -37450,16 +37450,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1363.729575402784</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1070.99198265499</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,28 +37669,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321608</v>
+        <v>1048.91401725617</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1440.08139059447</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>747.1142864321608</v>
+        <v>1063.028252950772</v>
       </c>
       <c r="L41" t="n">
-        <v>1494.705995575322</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37927,10 +37927,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38155,22 +38155,22 @@
         <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
-        <v>1536.880016835161</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>919.3483666068121</v>
+        <v>1235.262333125423</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
